--- a/dados/oestesom.xlsx
+++ b/dados/oestesom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64243271#searchVariation=MLB21348561&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=2197309f-2f4c-4b60-b3c0-70352cb2365e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64243271#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>
@@ -496,142 +516,516 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64243271#searchVariation=MLB24834408&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=2197309f-2f4c-4b60-b3c0-70352cb2365e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64243271#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568.15</v>
+        <v>466.39</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64243271#searchVariation=MLB22144397&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=2197309f-2f4c-4b60-b3c0-70352cb2365e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64243271#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>466.39</v>
+        <v>533</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64243271#searchVariation=MLB21562641&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=2197309f-2f4c-4b60-b3c0-70352cb2365e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64243271#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 120a Bob</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533</v>
+        <v>539.74</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64243271#searchVariation=MLB21320712&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=496438d4-4d84-4b6e-9ce0-c564c2bb32a4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3701888097-fonte-som-automotiva-jfa-carregador-de-bateria-120a-bob-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 120a Bob</t>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 90a Bob</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>539.74</v>
+        <v>443.07</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3701888097-fonte-som-automotiva-jfa-carregador-de-bateria-120a-bob-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D51987c4e-a8c2-4197-bf9b-47ea24a90c3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4706615412-fonte-som-automotiva-jfa-carregador-de-bateria-90a-bob-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 90a Bob</t>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 200a Bob</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.07</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4706615412-fonte-som-automotiva-jfa-carregador-de-bateria-90a-bob-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92543fb8-24c9-4192-9d34-d35166409956</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3701844755-fonte-som-automotiva-jfa-carregador-de-bateria-200a-bob-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 200a Storm</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3701720815-fonte-som-automotiva-jfa-carregador-de-bateria-200a-storm-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 60a Storm</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4707095142-fonte-som-automotiva-jfa-carregador-de-bateria-60a-storm-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Astra Meriva Montana Zafira Corsa Joy Jfa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>727.89</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803728714-volante-esportivo-astra-meriva-montana-zafira-corsa-joy-jfa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Corsa Classic Kadet Monza Prisma Celta Jfa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>615.23</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803743331-volante-esportivo-corsa-classic-kadet-monza-prisma-celta-jfa-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Montana 2012 2013 Controle Jfa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989056300-volante-esportivo-jetta-gli-montana-2012-2013-controle-jfa-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Astra Meriva Montana Corsa Jfa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989043880-volante-esportivo-jetta-gli-astra-meriva-montana-corsa-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Astra 98 99 2000 Controle Jfa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989060232-volante-esportivo-jetta-gli-astra-98-99-2000-controle-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Corsa Hatch 2008 Controle Jfa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989051284-volante-esportivo-jetta-gli-corsa-hatch-2008-controle-jfa-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Corsa Classic Kadet Monza Prisma Celta Jfa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>581.23</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803729492-volante-esportivo-corsa-classic-kadet-monza-prisma-celta-jfa-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Astra Meriva Montana Zafira Corsa Joy Jfa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>690.48</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803734688-volante-esportivo-astra-meriva-montana-zafira-corsa-joy-jfa-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
         </is>
       </c>
     </row>

--- a/dados/oestesom.xlsx
+++ b/dados/oestesom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>845.87</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64243271#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64243271#searchVariation=MLB21348561&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>731.39</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64243271#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64243271#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>568.15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,25 +571,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64243271#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64243271#searchVariation=MLB22144397&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>533</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -602,27 +606,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64243271#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64243271#searchVariation=MLB21562641&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 120a Bob</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>533</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -637,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3701888097-fonte-som-automotiva-jfa-carregador-de-bateria-120a-bob-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64243271#searchVariation=MLB21320712&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=b85dc1c6-d43a-4028-8e2a-0ee7548e19af</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 90a Bob</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 120a Bob</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>539.74</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4706615412-fonte-som-automotiva-jfa-carregador-de-bateria-90a-bob-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3701888097-fonte-som-automotiva-jfa-carregador-de-bateria-120a-bob-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D701784ba-eb55-4e9e-b70d-1553d6ef6bb2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 200a Bob</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 90a Bob</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>443.07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -707,325 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3701844755-fonte-som-automotiva-jfa-carregador-de-bateria-200a-bob-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 200a Storm</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3701720815-fonte-som-automotiva-jfa-carregador-de-bateria-200a-storm-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 60a Storm</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4707095142-fonte-som-automotiva-jfa-carregador-de-bateria-60a-storm-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Astra Meriva Montana Zafira Corsa Joy Jfa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>727.89</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803728714-volante-esportivo-astra-meriva-montana-zafira-corsa-joy-jfa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Corsa Classic Kadet Monza Prisma Celta Jfa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>615.23</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803743331-volante-esportivo-corsa-classic-kadet-monza-prisma-celta-jfa-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Jetta Gli Montana 2012 2013 Controle Jfa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>567.8099999999999</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989056300-volante-esportivo-jetta-gli-montana-2012-2013-controle-jfa-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Jetta Gli Astra Meriva Montana Corsa Jfa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>567.8099999999999</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989043880-volante-esportivo-jetta-gli-astra-meriva-montana-corsa-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Jetta Gli Astra 98 99 2000 Controle Jfa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>567.8099999999999</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989060232-volante-esportivo-jetta-gli-astra-98-99-2000-controle-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Jetta Gli Corsa Hatch 2008 Controle Jfa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>567.8099999999999</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989051284-volante-esportivo-jetta-gli-corsa-hatch-2008-controle-jfa-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Corsa Classic Kadet Monza Prisma Celta Jfa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>581.23</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803729492-volante-esportivo-corsa-classic-kadet-monza-prisma-celta-jfa-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Volante Esportivo Astra Meriva Montana Zafira Corsa Joy Jfa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>690.48</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803734688-volante-esportivo-astra-meriva-montana-zafira-corsa-joy-jfa-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df745bc25-3749-4911-b299-8e5c83f83893</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4706615412-fonte-som-automotiva-jfa-carregador-de-bateria-90a-bob-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b21faea-f6ad-4cf2-8901-1cc201a56e0e</t>
         </is>
       </c>
     </row>

--- a/dados/oestesom.xlsx
+++ b/dados/oestesom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64243271#searchVariation=MLB21348561&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64243271#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64243271#searchVariation=MLB24834408&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64243271#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>568.15</v>
+        <v>466.39</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64243271#searchVariation=MLB22144397&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64243271#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>466.39</v>
+        <v>533</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -606,27 +606,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64243271#searchVariation=MLB21562641&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=ef5e1c8c-6ed6-4337-85ff-38cd6a714443</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64243271#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 90a Bob</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>533</v>
+        <v>443.07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64243271#searchVariation=MLB21320712&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=b85dc1c6-d43a-4028-8e2a-0ee7548e19af</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4706615412-fonte-som-automotiva-jfa-carregador-de-bateria-90a-bob-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
@@ -676,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3701888097-fonte-som-automotiva-jfa-carregador-de-bateria-120a-bob-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D701784ba-eb55-4e9e-b70d-1553d6ef6bb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3701888097-fonte-som-automotiva-jfa-carregador-de-bateria-120a-bob-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Som Automotiva Jfa Carregador De Bateria 90a Bob</t>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 200a Bob</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>443.07</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -711,7 +711,325 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4706615412-fonte-som-automotiva-jfa-carregador-de-bateria-90a-bob-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b21faea-f6ad-4cf2-8901-1cc201a56e0e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3701844755-fonte-som-automotiva-jfa-carregador-de-bateria-200a-bob-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 200a Storm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3701720815-fonte-som-automotiva-jfa-carregador-de-bateria-200a-storm-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotiva Jfa Carregador De Bateria 60a Storm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4707095142-fonte-som-automotiva-jfa-carregador-de-bateria-60a-storm-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Astra Meriva Montana Zafira Corsa Joy Jfa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>727.89</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803728714-volante-esportivo-astra-meriva-montana-zafira-corsa-joy-jfa-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Corsa Classic Kadet Monza Prisma Celta Jfa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>615.23</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803743331-volante-esportivo-corsa-classic-kadet-monza-prisma-celta-jfa-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Montana 2012 2013 Controle Jfa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989056300-volante-esportivo-jetta-gli-montana-2012-2013-controle-jfa-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Astra Meriva Montana Corsa Jfa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989043880-volante-esportivo-jetta-gli-astra-meriva-montana-corsa-jfa-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Astra 98 99 2000 Controle Jfa</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989060232-volante-esportivo-jetta-gli-astra-98-99-2000-controle-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Jetta Gli Corsa Hatch 2008 Controle Jfa</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>567.8099999999999</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989051284-volante-esportivo-jetta-gli-corsa-hatch-2008-controle-jfa-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Corsa Classic Kadet Monza Prisma Celta Jfa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>581.23</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803729492-volante-esportivo-corsa-classic-kadet-monza-prisma-celta-jfa-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volante Esportivo Astra Meriva Montana Zafira Corsa Joy Jfa</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>690.48</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803734688-volante-esportivo-astra-meriva-montana-zafira-corsa-joy-jfa-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7c63d0b7-a707-4ba0-a195-22c18ae9592c</t>
         </is>
       </c>
     </row>
